--- a/latest/OM2/excel/OM2_12_tyottomyyden_keskimaarainen_kesto_vertailu_viim_vuosi.xlsx
+++ b/latest/OM2/excel/OM2_12_tyottomyyden_keskimaarainen_kesto_vertailu_viim_vuosi.xlsx
@@ -44,9 +44,6 @@
     <t>60-64 v.</t>
   </si>
   <si>
-    <t>2016-09</t>
-  </si>
-  <si>
     <t>2016-10</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>2017-09</t>
+  </si>
+  <si>
+    <t>2017-10</t>
   </si>
 </sst>
 </file>
@@ -171,28 +171,28 @@
         <v>27.0</v>
       </c>
       <c r="C2" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="D2" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="E2" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="F2" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="G2" t="n">
         <v>45.0</v>
       </c>
       <c r="H2" t="n">
-        <v>61.0</v>
+        <v>48.0</v>
       </c>
       <c r="I2" t="n">
-        <v>62.0</v>
+        <v>58.0</v>
       </c>
       <c r="J2" t="n">
-        <v>101.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="3">
@@ -206,25 +206,25 @@
         <v>30.0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="E3" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="F3" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="G3" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="H3" t="n">
         <v>45.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>48.0</v>
-      </c>
       <c r="I3" t="n">
-        <v>58.0</v>
+        <v>56.0</v>
       </c>
       <c r="J3" t="n">
-        <v>98.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="4">
@@ -232,31 +232,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="D4" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="E4" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="F4" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="G4" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="I4" t="n">
-        <v>56.0</v>
+        <v>48.0</v>
       </c>
       <c r="J4" t="n">
-        <v>96.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="5">
@@ -264,31 +264,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="D5" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="E5" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="G5" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="H5" t="n">
-        <v>41.0</v>
+        <v>50.0</v>
       </c>
       <c r="I5" t="n">
         <v>48.0</v>
       </c>
       <c r="J5" t="n">
-        <v>95.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="6">
@@ -296,31 +296,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="C6" t="n">
         <v>28.0</v>
       </c>
       <c r="D6" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="E6" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="F6" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="G6" t="n">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="H6" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="J6" t="n">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="7">
@@ -328,31 +328,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C7" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="D7" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="E7" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="F7" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G7" t="n">
-        <v>44.0</v>
+        <v>50.0</v>
       </c>
       <c r="H7" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="I7" t="n">
         <v>51.0</v>
       </c>
       <c r="J7" t="n">
-        <v>97.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="8">
@@ -360,31 +360,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C8" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="D8" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="E8" t="n">
         <v>43.0</v>
       </c>
       <c r="F8" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="G8" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="H8" t="n">
         <v>52.0</v>
       </c>
       <c r="I8" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="J8" t="n">
-        <v>101.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="9">
@@ -392,31 +392,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C9" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="E9" t="n">
         <v>43.0</v>
       </c>
       <c r="F9" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="G9" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="H9" t="n">
         <v>51.0</v>
       </c>
-      <c r="H9" t="n">
-        <v>52.0</v>
-      </c>
       <c r="I9" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="J9" t="n">
-        <v>105.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="10">
@@ -424,31 +424,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="D10" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E10" t="n">
         <v>38.0</v>
       </c>
-      <c r="E10" t="n">
-        <v>43.0</v>
-      </c>
       <c r="F10" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="I10" t="n">
         <v>48.0</v>
       </c>
-      <c r="G10" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>55.0</v>
-      </c>
       <c r="J10" t="n">
-        <v>112.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="11">
@@ -456,10 +456,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="C11" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="D11" t="n">
         <v>32.0</v>
@@ -468,19 +468,19 @@
         <v>38.0</v>
       </c>
       <c r="F11" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="G11" t="n">
         <v>42.0</v>
       </c>
       <c r="H11" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="I11" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="J11" t="n">
-        <v>103.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="12">
@@ -488,31 +488,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="C12" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="D12" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="E12" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="F12" t="n">
-        <v>41.0</v>
+        <v>54.0</v>
       </c>
       <c r="G12" t="n">
-        <v>42.0</v>
+        <v>50.0</v>
       </c>
       <c r="H12" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="I12" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="J12" t="n">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="13">
@@ -520,31 +520,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="C13" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E13" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="F13" t="n">
         <v>54.0</v>
       </c>
       <c r="G13" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="H13" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="I13" t="n">
         <v>54.0</v>
       </c>
-      <c r="I13" t="n">
-        <v>52.0</v>
-      </c>
       <c r="J13" t="n">
-        <v>106.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="14">
@@ -552,28 +552,28 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="C14" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="D14" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="E14" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="F14" t="n">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
       <c r="G14" t="n">
-        <v>52.0</v>
+        <v>48.0</v>
       </c>
       <c r="H14" t="n">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
       <c r="I14" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="J14" t="n">
         <v>107.0</v>

--- a/latest/OM2/excel/OM2_12_tyottomyyden_keskimaarainen_kesto_vertailu_viim_vuosi.xlsx
+++ b/latest/OM2/excel/OM2_12_tyottomyyden_keskimaarainen_kesto_vertailu_viim_vuosi.xlsx
@@ -44,9 +44,6 @@
     <t>60-64 v.</t>
   </si>
   <si>
-    <t>2016-10</t>
-  </si>
-  <si>
     <t>2016-11</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>2017-10</t>
+  </si>
+  <si>
+    <t>2017-11</t>
   </si>
 </sst>
 </file>
@@ -174,25 +174,25 @@
         <v>30.0</v>
       </c>
       <c r="D2" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="E2" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="F2" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="G2" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="H2" t="n">
         <v>45.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>48.0</v>
-      </c>
       <c r="I2" t="n">
-        <v>58.0</v>
+        <v>56.0</v>
       </c>
       <c r="J2" t="n">
-        <v>98.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="3">
@@ -200,31 +200,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="C3" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="D3" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="E3" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="F3" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="G3" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="H3" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="I3" t="n">
-        <v>56.0</v>
+        <v>48.0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="4">
@@ -232,31 +232,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="C4" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="D4" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="E4" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="F4" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="G4" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.0</v>
+        <v>50.0</v>
       </c>
       <c r="I4" t="n">
         <v>48.0</v>
       </c>
       <c r="J4" t="n">
-        <v>95.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="5">
@@ -264,31 +264,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="C5" t="n">
         <v>28.0</v>
       </c>
       <c r="D5" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="E5" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="F5" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="G5" t="n">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="H5" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="I5" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="J5" t="n">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="6">
@@ -296,31 +296,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C6" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="D6" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="E6" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="F6" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G6" t="n">
-        <v>44.0</v>
+        <v>50.0</v>
       </c>
       <c r="H6" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="I6" t="n">
         <v>51.0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="7">
@@ -328,31 +328,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C7" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="E7" t="n">
         <v>43.0</v>
       </c>
       <c r="F7" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="H7" t="n">
         <v>52.0</v>
       </c>
       <c r="I7" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="J7" t="n">
-        <v>101.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="8">
@@ -360,31 +360,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C8" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="D8" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="E8" t="n">
         <v>43.0</v>
       </c>
       <c r="F8" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="G8" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="H8" t="n">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="I8" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="J8" t="n">
-        <v>105.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="9">
@@ -392,31 +392,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="D9" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E9" t="n">
         <v>38.0</v>
       </c>
-      <c r="E9" t="n">
-        <v>43.0</v>
-      </c>
       <c r="F9" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="I9" t="n">
         <v>48.0</v>
       </c>
-      <c r="G9" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>55.0</v>
-      </c>
       <c r="J9" t="n">
-        <v>112.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="10">
@@ -424,10 +424,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="C10" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="D10" t="n">
         <v>32.0</v>
@@ -436,19 +436,19 @@
         <v>38.0</v>
       </c>
       <c r="F10" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="G10" t="n">
         <v>42.0</v>
       </c>
       <c r="H10" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="I10" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="J10" t="n">
-        <v>103.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="11">
@@ -456,31 +456,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="C11" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="D11" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="E11" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="F11" t="n">
-        <v>41.0</v>
+        <v>54.0</v>
       </c>
       <c r="G11" t="n">
-        <v>42.0</v>
+        <v>50.0</v>
       </c>
       <c r="H11" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="I11" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="J11" t="n">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="12">
@@ -488,31 +488,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="C12" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="D12" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E12" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="F12" t="n">
         <v>54.0</v>
       </c>
       <c r="G12" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="H12" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="I12" t="n">
         <v>54.0</v>
       </c>
-      <c r="I12" t="n">
-        <v>52.0</v>
-      </c>
       <c r="J12" t="n">
-        <v>106.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="13">
@@ -520,28 +520,28 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="C13" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="D13" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="E13" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="F13" t="n">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.0</v>
+        <v>48.0</v>
       </c>
       <c r="H13" t="n">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="J13" t="n">
         <v>107.0</v>
@@ -555,28 +555,28 @@
         <v>24.0</v>
       </c>
       <c r="C14" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="D14" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="E14" t="n">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="F14" t="n">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="G14" t="n">
         <v>48.0</v>
       </c>
       <c r="H14" t="n">
-        <v>55.0</v>
+        <v>53.0</v>
       </c>
       <c r="I14" t="n">
-        <v>58.0</v>
+        <v>51.0</v>
       </c>
       <c r="J14" t="n">
-        <v>107.0</v>
+        <v>102.0</v>
       </c>
     </row>
   </sheetData>

--- a/latest/OM2/excel/OM2_12_tyottomyyden_keskimaarainen_kesto_vertailu_viim_vuosi.xlsx
+++ b/latest/OM2/excel/OM2_12_tyottomyyden_keskimaarainen_kesto_vertailu_viim_vuosi.xlsx
@@ -44,9 +44,6 @@
     <t>60-64 v.</t>
   </si>
   <si>
-    <t>2016-11</t>
-  </si>
-  <si>
     <t>2016-12</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>2017-11</t>
+  </si>
+  <si>
+    <t>2017-12</t>
   </si>
 </sst>
 </file>
@@ -168,31 +168,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="C2" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="D2" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="F2" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="G2" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="H2" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="I2" t="n">
-        <v>56.0</v>
+        <v>48.0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="3">
@@ -200,31 +200,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="C3" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="E3" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="F3" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="G3" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="H3" t="n">
-        <v>41.0</v>
+        <v>50.0</v>
       </c>
       <c r="I3" t="n">
         <v>48.0</v>
       </c>
       <c r="J3" t="n">
-        <v>95.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="4">
@@ -232,31 +232,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="C4" t="n">
         <v>28.0</v>
       </c>
       <c r="D4" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="E4" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="F4" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="G4" t="n">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="I4" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="J4" t="n">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="5">
@@ -264,31 +264,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="D5" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="E5" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.0</v>
+        <v>50.0</v>
       </c>
       <c r="H5" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="I5" t="n">
         <v>51.0</v>
       </c>
       <c r="J5" t="n">
-        <v>97.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="6">
@@ -296,31 +296,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C6" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="E6" t="n">
         <v>43.0</v>
       </c>
       <c r="F6" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="G6" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="H6" t="n">
         <v>52.0</v>
       </c>
       <c r="I6" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="J6" t="n">
-        <v>101.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="7">
@@ -328,31 +328,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C7" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="D7" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="E7" t="n">
         <v>43.0</v>
       </c>
       <c r="F7" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="G7" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="H7" t="n">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="I7" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="J7" t="n">
-        <v>105.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="8">
@@ -360,31 +360,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C8" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="D8" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E8" t="n">
         <v>38.0</v>
       </c>
-      <c r="E8" t="n">
-        <v>43.0</v>
-      </c>
       <c r="F8" t="n">
-        <v>48.0</v>
+        <v>39.0</v>
       </c>
       <c r="G8" t="n">
-        <v>50.0</v>
+        <v>42.0</v>
       </c>
       <c r="H8" t="n">
-        <v>51.0</v>
+        <v>47.0</v>
       </c>
       <c r="I8" t="n">
-        <v>55.0</v>
+        <v>48.0</v>
       </c>
       <c r="J8" t="n">
-        <v>112.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="9">
@@ -392,10 +392,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="C9" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="D9" t="n">
         <v>32.0</v>
@@ -404,19 +404,19 @@
         <v>38.0</v>
       </c>
       <c r="F9" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="G9" t="n">
         <v>42.0</v>
       </c>
       <c r="H9" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="10">
@@ -424,31 +424,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="C10" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="D10" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="E10" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="F10" t="n">
-        <v>41.0</v>
+        <v>54.0</v>
       </c>
       <c r="G10" t="n">
-        <v>42.0</v>
+        <v>50.0</v>
       </c>
       <c r="H10" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="I10" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="J10" t="n">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="11">
@@ -456,31 +456,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="D11" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E11" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="F11" t="n">
         <v>54.0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="H11" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="I11" t="n">
         <v>54.0</v>
       </c>
-      <c r="I11" t="n">
-        <v>52.0</v>
-      </c>
       <c r="J11" t="n">
-        <v>106.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="12">
@@ -488,28 +488,28 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="C12" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="D12" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="E12" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="F12" t="n">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
       <c r="G12" t="n">
-        <v>52.0</v>
+        <v>48.0</v>
       </c>
       <c r="H12" t="n">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
       <c r="I12" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="J12" t="n">
         <v>107.0</v>
@@ -523,28 +523,28 @@
         <v>24.0</v>
       </c>
       <c r="C13" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="D13" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="E13" t="n">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="F13" t="n">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="G13" t="n">
         <v>48.0</v>
       </c>
       <c r="H13" t="n">
-        <v>55.0</v>
+        <v>53.0</v>
       </c>
       <c r="I13" t="n">
-        <v>58.0</v>
+        <v>51.0</v>
       </c>
       <c r="J13" t="n">
-        <v>107.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="14">
@@ -552,31 +552,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="D14" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="E14" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="G14" t="n">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="H14" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="I14" t="n">
-        <v>51.0</v>
+        <v>48.0</v>
       </c>
       <c r="J14" t="n">
-        <v>102.0</v>
+        <v>99.0</v>
       </c>
     </row>
   </sheetData>
